--- a/data/pca/factorExposure/factorExposure_2011-04-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-04-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.006775783929288034</v>
+        <v>0.01293869591122783</v>
       </c>
       <c r="C2">
-        <v>0.0002369781240778147</v>
+        <v>-0.001320584286410393</v>
       </c>
       <c r="D2">
-        <v>-0.04837617057751802</v>
+        <v>-0.001907860471209683</v>
       </c>
       <c r="E2">
-        <v>-0.001264055630121825</v>
+        <v>-0.01141921084004312</v>
       </c>
       <c r="F2">
-        <v>0.01244518913999632</v>
+        <v>0.03400890908279403</v>
       </c>
       <c r="G2">
-        <v>0.0107038749841237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.002100459845745517</v>
+      </c>
+      <c r="H2">
+        <v>-0.003213127999277235</v>
+      </c>
+      <c r="I2">
+        <v>0.05388088344653164</v>
+      </c>
+      <c r="J2">
+        <v>0.05779878886230076</v>
+      </c>
+      <c r="K2">
+        <v>-0.01691073271872602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.102372971167592</v>
+        <v>0.1130305949574309</v>
       </c>
       <c r="C4">
-        <v>0.03317324435603503</v>
+        <v>-0.06314025328731736</v>
       </c>
       <c r="D4">
-        <v>-0.04720526178426514</v>
+        <v>0.002274749144256541</v>
       </c>
       <c r="E4">
-        <v>-0.06226690181395624</v>
+        <v>-0.01655352587806198</v>
       </c>
       <c r="F4">
-        <v>0.02959135250192037</v>
+        <v>0.02672444119264862</v>
       </c>
       <c r="G4">
-        <v>0.02988043918200678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.09240763252630893</v>
+      </c>
+      <c r="H4">
+        <v>-0.1267623247497991</v>
+      </c>
+      <c r="I4">
+        <v>0.01734403425172448</v>
+      </c>
+      <c r="J4">
+        <v>-0.04170904946329093</v>
+      </c>
+      <c r="K4">
+        <v>0.02538934282495052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.128560395607531</v>
+        <v>0.1264726842917183</v>
       </c>
       <c r="C6">
-        <v>0.02619081665375339</v>
+        <v>-0.03352614160563381</v>
       </c>
       <c r="D6">
-        <v>-0.03495386835580273</v>
+        <v>0.01243912747972726</v>
       </c>
       <c r="E6">
-        <v>0.01266573775445667</v>
+        <v>-0.01352751773017759</v>
       </c>
       <c r="F6">
-        <v>-0.142595976705238</v>
+        <v>-0.01084051286267366</v>
       </c>
       <c r="G6">
-        <v>-0.10400430403549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.070552454600671</v>
+      </c>
+      <c r="H6">
+        <v>-0.07336764923249578</v>
+      </c>
+      <c r="I6">
+        <v>-0.1878141395665417</v>
+      </c>
+      <c r="J6">
+        <v>-0.3617895431803575</v>
+      </c>
+      <c r="K6">
+        <v>-0.1783099023190355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.09049915368995201</v>
+        <v>0.07486426934840636</v>
       </c>
       <c r="C7">
-        <v>0.04567465746341778</v>
+        <v>-0.06652023865073318</v>
       </c>
       <c r="D7">
-        <v>-0.04349732922514979</v>
+        <v>0.02681612560583218</v>
       </c>
       <c r="E7">
-        <v>-0.027454486613136</v>
+        <v>-0.02536788303150107</v>
       </c>
       <c r="F7">
-        <v>-0.0258261101580169</v>
+        <v>0.05122170683213281</v>
       </c>
       <c r="G7">
-        <v>0.03266622172851995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.0299831507754536</v>
+      </c>
+      <c r="H7">
+        <v>-0.03403080376210427</v>
+      </c>
+      <c r="I7">
+        <v>-0.02124986689826223</v>
+      </c>
+      <c r="J7">
+        <v>0.02243759577512806</v>
+      </c>
+      <c r="K7">
+        <v>0.09881363379847792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.04503239337702887</v>
+        <v>0.05330112844604497</v>
       </c>
       <c r="C8">
-        <v>-0.02067687937149793</v>
+        <v>-0.01567778256564877</v>
       </c>
       <c r="D8">
-        <v>-0.08751956177742509</v>
+        <v>0.01259071838278116</v>
       </c>
       <c r="E8">
-        <v>-0.08229747314257924</v>
+        <v>-0.003604295159027841</v>
       </c>
       <c r="F8">
-        <v>0.02624313822805615</v>
+        <v>0.02014208821116001</v>
       </c>
       <c r="G8">
-        <v>0.1267390857569131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.1171442571499611</v>
+      </c>
+      <c r="H8">
+        <v>-0.09124486117124114</v>
+      </c>
+      <c r="I8">
+        <v>0.02244851289068683</v>
+      </c>
+      <c r="J8">
+        <v>-0.02958214188444953</v>
+      </c>
+      <c r="K8">
+        <v>0.02191382714272647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.091876301352041</v>
+        <v>0.08505763359005648</v>
       </c>
       <c r="C9">
-        <v>0.04106843310840607</v>
+        <v>-0.05450426626570549</v>
       </c>
       <c r="D9">
-        <v>-0.03836970367288493</v>
+        <v>0.008701951582076768</v>
       </c>
       <c r="E9">
-        <v>-0.04645848376403412</v>
+        <v>-0.001620478533563108</v>
       </c>
       <c r="F9">
-        <v>0.01671107968396396</v>
+        <v>0.02538553894500378</v>
       </c>
       <c r="G9">
-        <v>0.07088876822237786</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.0818323034475382</v>
+      </c>
+      <c r="H9">
+        <v>-0.1137211366547016</v>
+      </c>
+      <c r="I9">
+        <v>-0.005105410626449775</v>
+      </c>
+      <c r="J9">
+        <v>-0.01147127910833391</v>
+      </c>
+      <c r="K9">
+        <v>-0.005655488464415299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.03905803758552556</v>
+        <v>0.0969871666850185</v>
       </c>
       <c r="C10">
-        <v>-0.1554714221055625</v>
+        <v>0.1645026952359485</v>
       </c>
       <c r="D10">
-        <v>-0.090742874137303</v>
+        <v>-0.04567427007664112</v>
       </c>
       <c r="E10">
-        <v>-0.02439809628315987</v>
+        <v>-0.03467409469681561</v>
       </c>
       <c r="F10">
-        <v>-0.04049276653362371</v>
+        <v>0.0362294602902123</v>
       </c>
       <c r="G10">
-        <v>0.01508567333726254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.00736102902062807</v>
+      </c>
+      <c r="H10">
+        <v>0.01110711131458086</v>
+      </c>
+      <c r="I10">
+        <v>-0.03448281514317202</v>
+      </c>
+      <c r="J10">
+        <v>-0.02976970236499573</v>
+      </c>
+      <c r="K10">
+        <v>0.05031215026511796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07594159255393107</v>
+        <v>0.07622087505899153</v>
       </c>
       <c r="C11">
-        <v>0.0630098097562773</v>
+        <v>-0.06655562469764756</v>
       </c>
       <c r="D11">
-        <v>-0.007301452390493633</v>
+        <v>0.0334279160463085</v>
       </c>
       <c r="E11">
-        <v>0.003082938104964062</v>
+        <v>0.02616190090962592</v>
       </c>
       <c r="F11">
-        <v>0.01836879660854741</v>
+        <v>0.02825553373635546</v>
       </c>
       <c r="G11">
-        <v>0.1419305297225774</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.09887248419200617</v>
+      </c>
+      <c r="H11">
+        <v>-0.08601159976562689</v>
+      </c>
+      <c r="I11">
+        <v>0.00596097721118765</v>
+      </c>
+      <c r="J11">
+        <v>0.1146417962049434</v>
+      </c>
+      <c r="K11">
+        <v>-0.03728560379296786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07200273819981222</v>
+        <v>0.07217196793921019</v>
       </c>
       <c r="C12">
-        <v>0.04087913815638792</v>
+        <v>-0.05766116421427447</v>
       </c>
       <c r="D12">
-        <v>-0.00172042221740345</v>
+        <v>0.03731414667092066</v>
       </c>
       <c r="E12">
-        <v>-0.03489920509381838</v>
+        <v>0.03599317870776151</v>
       </c>
       <c r="F12">
-        <v>0.003724838084170244</v>
+        <v>0.03723621954484962</v>
       </c>
       <c r="G12">
-        <v>0.1355450526746585</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.1169249714372971</v>
+      </c>
+      <c r="H12">
+        <v>-0.08101053984202401</v>
+      </c>
+      <c r="I12">
+        <v>-0.01321257271247186</v>
+      </c>
+      <c r="J12">
+        <v>0.0992507400307734</v>
+      </c>
+      <c r="K12">
+        <v>-0.02569148452118272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.06392631964212291</v>
+        <v>0.04103376721498104</v>
       </c>
       <c r="C13">
-        <v>0.009062305663338049</v>
+        <v>-0.02673091025225417</v>
       </c>
       <c r="D13">
-        <v>-0.01187571359354998</v>
+        <v>0.01214800369443083</v>
       </c>
       <c r="E13">
-        <v>-0.02491813642218326</v>
+        <v>-0.01896805188720331</v>
       </c>
       <c r="F13">
-        <v>0.03804783956380334</v>
+        <v>0.01273671183477776</v>
       </c>
       <c r="G13">
-        <v>0.06681606491502406</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.04944266250313489</v>
+      </c>
+      <c r="H13">
+        <v>-0.04185145315700765</v>
+      </c>
+      <c r="I13">
+        <v>-0.03150763163554466</v>
+      </c>
+      <c r="J13">
+        <v>-0.03678416522354552</v>
+      </c>
+      <c r="K13">
+        <v>0.04355109640273511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.05362924302029025</v>
+        <v>0.04428922641020186</v>
       </c>
       <c r="C14">
-        <v>0.004601425251911825</v>
+        <v>-0.02212214148996494</v>
       </c>
       <c r="D14">
-        <v>-0.03642731174303039</v>
+        <v>0.0007225362308861001</v>
       </c>
       <c r="E14">
-        <v>-0.02586033977058523</v>
+        <v>0.01156958297740258</v>
       </c>
       <c r="F14">
-        <v>0.005012466886989579</v>
+        <v>0.01334802212042205</v>
       </c>
       <c r="G14">
-        <v>0.07077313457956735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.05689374940128517</v>
+      </c>
+      <c r="H14">
+        <v>-0.03715720514578924</v>
+      </c>
+      <c r="I14">
+        <v>0.01687595136658922</v>
+      </c>
+      <c r="J14">
+        <v>-0.04546436360772581</v>
+      </c>
+      <c r="K14">
+        <v>0.03168444012939502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.03623349617752269</v>
+        <v>0.02374017577157709</v>
       </c>
       <c r="C15">
-        <v>-0.009479282211192075</v>
+        <v>-0.008415522985973091</v>
       </c>
       <c r="D15">
-        <v>-0.01217480460649886</v>
+        <v>0.0001270302490067669</v>
       </c>
       <c r="E15">
-        <v>-0.005850392602692486</v>
+        <v>-0.03709548101131817</v>
       </c>
       <c r="F15">
-        <v>0.01099192009507494</v>
+        <v>-0.007694547100784321</v>
       </c>
       <c r="G15">
-        <v>0.03262645459484505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.01271204796733526</v>
+      </c>
+      <c r="H15">
+        <v>-0.01972085811971383</v>
+      </c>
+      <c r="I15">
+        <v>-0.01846648988997361</v>
+      </c>
+      <c r="J15">
+        <v>-0.05115701578066088</v>
+      </c>
+      <c r="K15">
+        <v>0.03972766242775677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.0792008396355999</v>
+        <v>0.08029218155394784</v>
       </c>
       <c r="C16">
-        <v>0.07222625881289806</v>
+        <v>-0.06681097593731505</v>
       </c>
       <c r="D16">
-        <v>-0.01642443578405908</v>
+        <v>0.04517565274620847</v>
       </c>
       <c r="E16">
-        <v>-0.03584182735373441</v>
+        <v>0.02092295935402206</v>
       </c>
       <c r="F16">
-        <v>0.03700920498374339</v>
+        <v>0.03295205405785843</v>
       </c>
       <c r="G16">
-        <v>0.1081498959340838</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.1217296924140684</v>
+      </c>
+      <c r="H16">
+        <v>-0.07307490072195719</v>
+      </c>
+      <c r="I16">
+        <v>0.006281879275976992</v>
+      </c>
+      <c r="J16">
+        <v>0.1184767361026042</v>
+      </c>
+      <c r="K16">
+        <v>-0.01589591388582807</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.05056706844668322</v>
+        <v>0.0507369845240946</v>
       </c>
       <c r="C20">
-        <v>0.02045537951724127</v>
+        <v>-0.03881274713947984</v>
       </c>
       <c r="D20">
-        <v>-0.01741658514668283</v>
+        <v>-0.01492402789104653</v>
       </c>
       <c r="E20">
-        <v>-0.0238957967405896</v>
+        <v>-0.009400457758359996</v>
       </c>
       <c r="F20">
-        <v>0.00995589230076693</v>
+        <v>0.01278584797433825</v>
       </c>
       <c r="G20">
-        <v>0.1043955647886921</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.06581222485527266</v>
+      </c>
+      <c r="H20">
+        <v>-0.03401939102168901</v>
+      </c>
+      <c r="I20">
+        <v>-0.007010861615048837</v>
+      </c>
+      <c r="J20">
+        <v>-0.01994650071436006</v>
+      </c>
+      <c r="K20">
+        <v>0.05793157236519222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.02628262423790947</v>
+        <v>0.02722037344052284</v>
       </c>
       <c r="C21">
-        <v>0.03621118821054344</v>
+        <v>-0.02227671031896213</v>
       </c>
       <c r="D21">
-        <v>0.001811959778913088</v>
+        <v>-0.02680910339094767</v>
       </c>
       <c r="E21">
-        <v>-0.01241092919094258</v>
+        <v>0.006809260564441174</v>
       </c>
       <c r="F21">
-        <v>-0.08952968032749867</v>
+        <v>-0.01373638975523633</v>
       </c>
       <c r="G21">
-        <v>-0.05392523503314489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.06353740610966174</v>
+      </c>
+      <c r="H21">
+        <v>-0.06669737830019927</v>
+      </c>
+      <c r="I21">
+        <v>-0.08771912392693364</v>
+      </c>
+      <c r="J21">
+        <v>-0.02456356346804128</v>
+      </c>
+      <c r="K21">
+        <v>0.1071438651989228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.04544858016629104</v>
+        <v>0.03898413630130491</v>
       </c>
       <c r="C22">
-        <v>-0.0008453427128783149</v>
+        <v>-0.01439823728896974</v>
       </c>
       <c r="D22">
-        <v>-0.004707688801190025</v>
+        <v>0.05763535914432025</v>
       </c>
       <c r="E22">
-        <v>-0.5557451126268066</v>
+        <v>-0.6455658664325128</v>
       </c>
       <c r="F22">
-        <v>0.08933057197228404</v>
+        <v>-0.08918068266341377</v>
       </c>
       <c r="G22">
-        <v>-0.3202700628516548</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.07749956930084625</v>
+      </c>
+      <c r="H22">
+        <v>0.1514374562559573</v>
+      </c>
+      <c r="I22">
+        <v>-0.01440227520508178</v>
+      </c>
+      <c r="J22">
+        <v>0.07562598077136334</v>
+      </c>
+      <c r="K22">
+        <v>-0.05692023132862399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.04547691704973877</v>
+        <v>0.0391952843845222</v>
       </c>
       <c r="C23">
-        <v>-0.0001810319644183432</v>
+        <v>-0.01503840168517972</v>
       </c>
       <c r="D23">
-        <v>-0.005865120383243851</v>
+        <v>0.0589753727858273</v>
       </c>
       <c r="E23">
-        <v>-0.5555185961202407</v>
+        <v>-0.6478269947837608</v>
       </c>
       <c r="F23">
-        <v>0.0901779028005065</v>
+        <v>-0.08906394457167251</v>
       </c>
       <c r="G23">
-        <v>-0.3215888698316278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.07939789884430352</v>
+      </c>
+      <c r="H23">
+        <v>0.1482907469791132</v>
+      </c>
+      <c r="I23">
+        <v>-0.01286392999350482</v>
+      </c>
+      <c r="J23">
+        <v>0.07259585388226263</v>
+      </c>
+      <c r="K23">
+        <v>-0.05956004811300583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.0861622190270223</v>
+        <v>0.08350390706398325</v>
       </c>
       <c r="C24">
-        <v>0.04824561313808257</v>
+        <v>-0.06075003710886959</v>
       </c>
       <c r="D24">
-        <v>-0.02071624621596825</v>
+        <v>0.02122253035500721</v>
       </c>
       <c r="E24">
-        <v>-0.03881003765763545</v>
+        <v>0.01921945820734982</v>
       </c>
       <c r="F24">
-        <v>0.008720524495235672</v>
+        <v>0.02307106135403992</v>
       </c>
       <c r="G24">
-        <v>0.1088213684712016</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.1155270596140211</v>
+      </c>
+      <c r="H24">
+        <v>-0.07429437387441989</v>
+      </c>
+      <c r="I24">
+        <v>0.002223099793330716</v>
+      </c>
+      <c r="J24">
+        <v>0.1202142590102305</v>
+      </c>
+      <c r="K24">
+        <v>-0.04704019626096699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.07559090218473589</v>
+        <v>0.08350448172452453</v>
       </c>
       <c r="C25">
-        <v>0.02082716029556357</v>
+        <v>-0.04482292737483883</v>
       </c>
       <c r="D25">
-        <v>-0.024613158219791</v>
+        <v>0.02738029848824444</v>
       </c>
       <c r="E25">
-        <v>-0.02755625919838827</v>
+        <v>0.04005190469896713</v>
       </c>
       <c r="F25">
-        <v>0.001433606506237124</v>
+        <v>0.04035145573731894</v>
       </c>
       <c r="G25">
-        <v>0.1061039935256892</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.1172322212342538</v>
+      </c>
+      <c r="H25">
+        <v>-0.06785794260994106</v>
+      </c>
+      <c r="I25">
+        <v>0.01191468630924864</v>
+      </c>
+      <c r="J25">
+        <v>0.09592523382335748</v>
+      </c>
+      <c r="K25">
+        <v>-0.03015033055300003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.04987381995055513</v>
+        <v>0.04348687448104051</v>
       </c>
       <c r="C26">
-        <v>0.02410671557027227</v>
+        <v>-0.01041466995121085</v>
       </c>
       <c r="D26">
-        <v>-0.03447436401784659</v>
+        <v>-0.01002526436324283</v>
       </c>
       <c r="E26">
-        <v>-0.01477306559273404</v>
+        <v>-0.01223913418462192</v>
       </c>
       <c r="F26">
-        <v>0.02647723315459254</v>
+        <v>-0.01138262101260465</v>
       </c>
       <c r="G26">
-        <v>0.06052710785226647</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.05860004087295421</v>
+      </c>
+      <c r="H26">
+        <v>-0.02586652153089561</v>
+      </c>
+      <c r="I26">
+        <v>0.004626671633154401</v>
+      </c>
+      <c r="J26">
+        <v>-0.03203009961256902</v>
+      </c>
+      <c r="K26">
+        <v>0.01875453571493856</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.06338615868267333</v>
+        <v>0.1207697893467222</v>
       </c>
       <c r="C28">
-        <v>-0.2933658201000934</v>
+        <v>0.3035510197987709</v>
       </c>
       <c r="D28">
-        <v>-0.06102739330704709</v>
+        <v>0.00137258635409279</v>
       </c>
       <c r="E28">
-        <v>0.03558856113839542</v>
+        <v>0.001860665795218567</v>
       </c>
       <c r="F28">
-        <v>-0.04922974756316618</v>
+        <v>0.00533095182147559</v>
       </c>
       <c r="G28">
-        <v>-0.02171877337317203</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01263311494769861</v>
+      </c>
+      <c r="H28">
+        <v>-0.01496959096341449</v>
+      </c>
+      <c r="I28">
+        <v>-0.01505789797656877</v>
+      </c>
+      <c r="J28">
+        <v>0.005951141143362146</v>
+      </c>
+      <c r="K28">
+        <v>0.02124117111714197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05706974944751857</v>
+        <v>0.04136217510803011</v>
       </c>
       <c r="C29">
-        <v>0.008348794063653875</v>
+        <v>-0.01977205259041732</v>
       </c>
       <c r="D29">
-        <v>-0.02947713161360775</v>
+        <v>0.01147726079943133</v>
       </c>
       <c r="E29">
-        <v>-0.04294469009375496</v>
+        <v>0.003389784249812752</v>
       </c>
       <c r="F29">
-        <v>0.0349893527111665</v>
+        <v>0.03647805591117835</v>
       </c>
       <c r="G29">
-        <v>0.04908105234267089</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.101994125736029</v>
+      </c>
+      <c r="H29">
+        <v>-0.01390659357281847</v>
+      </c>
+      <c r="I29">
+        <v>-0.003035235828563753</v>
+      </c>
+      <c r="J29">
+        <v>-0.04242940541496694</v>
+      </c>
+      <c r="K29">
+        <v>0.04794178458366354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.1171818065357628</v>
+        <v>0.1052569544637225</v>
       </c>
       <c r="C30">
-        <v>-0.01622596531081183</v>
+        <v>-0.04565732559482016</v>
       </c>
       <c r="D30">
-        <v>-0.07496356672820162</v>
+        <v>0.05431470682570581</v>
       </c>
       <c r="E30">
-        <v>-0.2016498785780517</v>
+        <v>0.01109218292527598</v>
       </c>
       <c r="F30">
-        <v>-0.05250418040956736</v>
+        <v>0.002168248388845231</v>
       </c>
       <c r="G30">
-        <v>0.138173050020701</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.2091371145787721</v>
+      </c>
+      <c r="H30">
+        <v>-0.0714188439297144</v>
+      </c>
+      <c r="I30">
+        <v>-0.1615960171928895</v>
+      </c>
+      <c r="J30">
+        <v>0.08567340286569888</v>
+      </c>
+      <c r="K30">
+        <v>-0.06533734489494517</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.0565437378482743</v>
+        <v>0.03894614178519978</v>
       </c>
       <c r="C31">
-        <v>0.01776747377606593</v>
+        <v>-0.03774912332084292</v>
       </c>
       <c r="D31">
-        <v>0.008988055928657599</v>
+        <v>0.005665035985239366</v>
       </c>
       <c r="E31">
-        <v>-0.007847687365776703</v>
+        <v>-0.001414270339283588</v>
       </c>
       <c r="F31">
-        <v>0.02540041209591423</v>
+        <v>0.005435355886903775</v>
       </c>
       <c r="G31">
-        <v>0.008961158110444629</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02926581636980928</v>
+      </c>
+      <c r="H31">
+        <v>-0.008683133375234384</v>
+      </c>
+      <c r="I31">
+        <v>0.03445260740308775</v>
+      </c>
+      <c r="J31">
+        <v>-0.02215863136862933</v>
+      </c>
+      <c r="K31">
+        <v>-0.002402317820265865</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.03867802604295859</v>
+        <v>0.05344773296506913</v>
       </c>
       <c r="C32">
-        <v>-0.01785242714612552</v>
+        <v>-0.001505333165230987</v>
       </c>
       <c r="D32">
-        <v>-0.00399913650040769</v>
+        <v>-0.01118842241164105</v>
       </c>
       <c r="E32">
-        <v>-0.08582730901012335</v>
+        <v>0.05081727423891536</v>
       </c>
       <c r="F32">
-        <v>0.0788380276376434</v>
+        <v>-0.03821373857147861</v>
       </c>
       <c r="G32">
-        <v>0.05672109856128409</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.03531991359864745</v>
+      </c>
+      <c r="H32">
+        <v>-0.04733263525044694</v>
+      </c>
+      <c r="I32">
+        <v>0.02830415773699566</v>
+      </c>
+      <c r="J32">
+        <v>-0.02550899901407204</v>
+      </c>
+      <c r="K32">
+        <v>0.01743119799584967</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1124186846726795</v>
+        <v>0.09618987788513444</v>
       </c>
       <c r="C33">
-        <v>0.01890039258224176</v>
+        <v>-0.04924174594017691</v>
       </c>
       <c r="D33">
-        <v>0.007349905511950167</v>
+        <v>0.06016703120972442</v>
       </c>
       <c r="E33">
-        <v>-0.01005971016313501</v>
+        <v>0.02496890010273343</v>
       </c>
       <c r="F33">
-        <v>0.0524046242104281</v>
+        <v>0.03059931867807497</v>
       </c>
       <c r="G33">
-        <v>0.0595969512710359</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.0478181568403735</v>
+      </c>
+      <c r="H33">
+        <v>-0.04885449491914824</v>
+      </c>
+      <c r="I33">
+        <v>0.01963297960939084</v>
+      </c>
+      <c r="J33">
+        <v>0.01408206177411032</v>
+      </c>
+      <c r="K33">
+        <v>-0.02403549462994038</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06580347306627252</v>
+        <v>0.06820431191036044</v>
       </c>
       <c r="C34">
-        <v>0.05378897722099303</v>
+        <v>-0.04975890553866608</v>
       </c>
       <c r="D34">
-        <v>-0.0068549657663313</v>
+        <v>0.02692443253333414</v>
       </c>
       <c r="E34">
-        <v>-0.019515372514544</v>
+        <v>0.02085396114599222</v>
       </c>
       <c r="F34">
-        <v>0.01837720142865224</v>
+        <v>0.02775750623859367</v>
       </c>
       <c r="G34">
-        <v>0.0896154525550282</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.110015725642305</v>
+      </c>
+      <c r="H34">
+        <v>-0.07041329529793201</v>
+      </c>
+      <c r="I34">
+        <v>0.001660478292245523</v>
+      </c>
+      <c r="J34">
+        <v>0.09024275581842642</v>
+      </c>
+      <c r="K34">
+        <v>0.005096688639970925</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04327204365628781</v>
+        <v>0.02263975606498295</v>
       </c>
       <c r="C35">
-        <v>0.008545834751206575</v>
+        <v>-0.01569773435581369</v>
       </c>
       <c r="D35">
-        <v>0.01800068506493126</v>
+        <v>0.01351675189298851</v>
       </c>
       <c r="E35">
-        <v>-0.004903305086364969</v>
+        <v>0.005987165399419929</v>
       </c>
       <c r="F35">
-        <v>-0.03637177577571462</v>
+        <v>0.01134132251043053</v>
       </c>
       <c r="G35">
-        <v>0.04457217135564183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.05250780478054524</v>
+      </c>
+      <c r="H35">
+        <v>-0.01059381488649935</v>
+      </c>
+      <c r="I35">
+        <v>-0.02282936083231532</v>
+      </c>
+      <c r="J35">
+        <v>0.01014327923875872</v>
+      </c>
+      <c r="K35">
+        <v>0.06081708168688553</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03629481174129125</v>
+        <v>0.0282456706083969</v>
       </c>
       <c r="C36">
-        <v>0.00240182930219578</v>
+        <v>-0.01162672150606035</v>
       </c>
       <c r="D36">
-        <v>-0.0253421252829115</v>
+        <v>0.001493759617030083</v>
       </c>
       <c r="E36">
-        <v>-0.03400230990833879</v>
+        <v>-0.007343721016566055</v>
       </c>
       <c r="F36">
-        <v>0.003938887929545869</v>
+        <v>0.001990675548263315</v>
       </c>
       <c r="G36">
-        <v>0.06371615990028363</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.06730981730474729</v>
+      </c>
+      <c r="H36">
+        <v>-0.04330827207150567</v>
+      </c>
+      <c r="I36">
+        <v>-0.007461534689210926</v>
+      </c>
+      <c r="J36">
+        <v>-0.0279814710181131</v>
+      </c>
+      <c r="K36">
+        <v>-0.008200032171757785</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.05119174636148751</v>
+        <v>0.02221111596081136</v>
       </c>
       <c r="C38">
-        <v>0.01958011545944795</v>
+        <v>-0.02806634344911296</v>
       </c>
       <c r="D38">
-        <v>-0.000377719723299775</v>
+        <v>0.01124988890523625</v>
       </c>
       <c r="E38">
-        <v>-0.01067986682778827</v>
+        <v>-0.01970989505251044</v>
       </c>
       <c r="F38">
-        <v>-0.006812239377704706</v>
+        <v>0.01416477379193756</v>
       </c>
       <c r="G38">
-        <v>0.04731826267057043</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01973246171495111</v>
+      </c>
+      <c r="H38">
+        <v>0.05118929530426603</v>
+      </c>
+      <c r="I38">
+        <v>-0.01914960756484443</v>
+      </c>
+      <c r="J38">
+        <v>-0.01442716707058631</v>
+      </c>
+      <c r="K38">
+        <v>-0.007641413233894654</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.1071235121654398</v>
+        <v>0.1129662720396558</v>
       </c>
       <c r="C39">
-        <v>0.04350148775643452</v>
+        <v>-0.07764705302385295</v>
       </c>
       <c r="D39">
-        <v>-0.004909974651357315</v>
+        <v>0.059577959491643</v>
       </c>
       <c r="E39">
-        <v>-0.06995486584362411</v>
+        <v>0.09294923791730517</v>
       </c>
       <c r="F39">
-        <v>0.007952899117318089</v>
+        <v>0.05487363319962854</v>
       </c>
       <c r="G39">
-        <v>0.154142430819188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.1567444858159342</v>
+      </c>
+      <c r="H39">
+        <v>-0.0454011513965944</v>
+      </c>
+      <c r="I39">
+        <v>-0.01134620065602983</v>
+      </c>
+      <c r="J39">
+        <v>0.1795545370516785</v>
+      </c>
+      <c r="K39">
+        <v>-0.02281055734197857</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.05427631251629354</v>
+        <v>0.02276875066009273</v>
       </c>
       <c r="C40">
-        <v>0.03322610347642667</v>
+        <v>-0.05590021288682443</v>
       </c>
       <c r="D40">
-        <v>0.01787130509042428</v>
+        <v>-0.0004448047693346785</v>
       </c>
       <c r="E40">
-        <v>-0.1040501643764029</v>
+        <v>-0.06378343095683514</v>
       </c>
       <c r="F40">
-        <v>-0.01952005537411017</v>
+        <v>-0.003669180049255836</v>
       </c>
       <c r="G40">
-        <v>0.257172231487533</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.09946454728893656</v>
+      </c>
+      <c r="H40">
+        <v>-0.08223001209494307</v>
+      </c>
+      <c r="I40">
+        <v>-0.08625083104727894</v>
+      </c>
+      <c r="J40">
+        <v>-0.008405602552880318</v>
+      </c>
+      <c r="K40">
+        <v>0.008971083736106075</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.04812160600002369</v>
+        <v>0.03487553532088415</v>
       </c>
       <c r="C41">
-        <v>0.03045611014196584</v>
+        <v>-0.02708075981719894</v>
       </c>
       <c r="D41">
-        <v>-0.001342248458226126</v>
+        <v>-0.002049148200731569</v>
       </c>
       <c r="E41">
-        <v>0.01172283155631709</v>
+        <v>0.0110137253159261</v>
       </c>
       <c r="F41">
-        <v>0.01965018029601033</v>
+        <v>0.01425408261565777</v>
       </c>
       <c r="G41">
-        <v>0.07193414596180055</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02272992121765242</v>
+      </c>
+      <c r="H41">
+        <v>-0.005141116415698018</v>
+      </c>
+      <c r="I41">
+        <v>0.002756544880901347</v>
+      </c>
+      <c r="J41">
+        <v>-0.003352893058219001</v>
+      </c>
+      <c r="K41">
+        <v>0.01587504117470978</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.07383045519607084</v>
+        <v>0.04999583362287462</v>
       </c>
       <c r="C43">
-        <v>0.02595114253552514</v>
+        <v>-0.02617311233969525</v>
       </c>
       <c r="D43">
-        <v>-0.022371142005441</v>
+        <v>0.02096124334412165</v>
       </c>
       <c r="E43">
-        <v>-0.02410172755406917</v>
+        <v>-0.00733409011892002</v>
       </c>
       <c r="F43">
-        <v>0.01681104648987797</v>
+        <v>0.01883732678153483</v>
       </c>
       <c r="G43">
-        <v>0.01696768753354251</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.03143998554107018</v>
+      </c>
+      <c r="H43">
+        <v>0.01408817424950096</v>
+      </c>
+      <c r="I43">
+        <v>0.002097514748664477</v>
+      </c>
+      <c r="J43">
+        <v>-0.0002397985908195732</v>
+      </c>
+      <c r="K43">
+        <v>-0.0113742463332563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.06639919231288151</v>
+        <v>0.1019967368120623</v>
       </c>
       <c r="C44">
-        <v>0.02452659316093934</v>
+        <v>-0.08044601449511248</v>
       </c>
       <c r="D44">
-        <v>-0.1062969050350035</v>
+        <v>0.04611997272377372</v>
       </c>
       <c r="E44">
-        <v>-0.06237193886514601</v>
+        <v>-0.1026236022665766</v>
       </c>
       <c r="F44">
-        <v>0.02274622571787316</v>
+        <v>0.08694898839696344</v>
       </c>
       <c r="G44">
-        <v>0.1267395427192424</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.2464018390863873</v>
+      </c>
+      <c r="H44">
+        <v>-0.09208141797337975</v>
+      </c>
+      <c r="I44">
+        <v>-0.07080426583929093</v>
+      </c>
+      <c r="J44">
+        <v>-0.07439450615267718</v>
+      </c>
+      <c r="K44">
+        <v>0.1563926014890738</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.0459398123860351</v>
+        <v>0.0303026343964742</v>
       </c>
       <c r="C46">
-        <v>0.03697277212064423</v>
+        <v>-0.02015639455687886</v>
       </c>
       <c r="D46">
-        <v>-0.03154482499710387</v>
+        <v>0.0143864065408308</v>
       </c>
       <c r="E46">
-        <v>-0.05047829986690799</v>
+        <v>-0.03888683083522951</v>
       </c>
       <c r="F46">
-        <v>0.01317556169633571</v>
+        <v>0.02940539641313935</v>
       </c>
       <c r="G46">
-        <v>0.04206606253902011</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.06190873567088492</v>
+      </c>
+      <c r="H46">
+        <v>-0.001193196157375112</v>
+      </c>
+      <c r="I46">
+        <v>-0.01703638771234468</v>
+      </c>
+      <c r="J46">
+        <v>-0.02322337868824553</v>
+      </c>
+      <c r="K46">
+        <v>0.0704825847940112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.04811594507328348</v>
+        <v>0.0422695131370683</v>
       </c>
       <c r="C47">
-        <v>0.0002790846616089086</v>
+        <v>-0.01776444306997152</v>
       </c>
       <c r="D47">
-        <v>-0.01315342164961501</v>
+        <v>0.01021526558281267</v>
       </c>
       <c r="E47">
-        <v>-0.0623529279278734</v>
+        <v>-0.009333484798261345</v>
       </c>
       <c r="F47">
-        <v>-0.008337458536231503</v>
+        <v>0.006295960418578395</v>
       </c>
       <c r="G47">
-        <v>-0.002128497787541204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04430569473791517</v>
+      </c>
+      <c r="H47">
+        <v>-0.009446515036218964</v>
+      </c>
+      <c r="I47">
+        <v>-0.009195010997985151</v>
+      </c>
+      <c r="J47">
+        <v>-0.0432471543122747</v>
+      </c>
+      <c r="K47">
+        <v>0.02856893876106706</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.04353418956733834</v>
+        <v>0.04272646653651062</v>
       </c>
       <c r="C48">
-        <v>-0.001487248902198339</v>
+        <v>-0.0101307801646776</v>
       </c>
       <c r="D48">
-        <v>0.002059684454927915</v>
+        <v>0.003193642186845308</v>
       </c>
       <c r="E48">
-        <v>-0.03622505985820848</v>
+        <v>-0.002960536549688651</v>
       </c>
       <c r="F48">
-        <v>0.00424768971336411</v>
+        <v>0.007154719400735641</v>
       </c>
       <c r="G48">
-        <v>0.04842142958311337</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.06158765279003556</v>
+      </c>
+      <c r="H48">
+        <v>-0.04200588899151589</v>
+      </c>
+      <c r="I48">
+        <v>-0.01973474259364582</v>
+      </c>
+      <c r="J48">
+        <v>0.00359795018024452</v>
+      </c>
+      <c r="K48">
+        <v>0.02144094020489543</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.2334998020141164</v>
+        <v>0.2289529049683144</v>
       </c>
       <c r="C49">
-        <v>0.0944208537943441</v>
+        <v>-0.0516270919080518</v>
       </c>
       <c r="D49">
-        <v>-0.02831994030133802</v>
+        <v>-0.07621608813017225</v>
       </c>
       <c r="E49">
-        <v>0.09390499627106598</v>
+        <v>0.03643866238115674</v>
       </c>
       <c r="F49">
-        <v>-0.1712481547070703</v>
+        <v>0.03792269652713524</v>
       </c>
       <c r="G49">
-        <v>-0.0905925691310903</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.2185171082024013</v>
+      </c>
+      <c r="H49">
+        <v>0.1016375407532435</v>
+      </c>
+      <c r="I49">
+        <v>-0.1760769426773181</v>
+      </c>
+      <c r="J49">
+        <v>0.2321351352747323</v>
+      </c>
+      <c r="K49">
+        <v>-0.2052063472472966</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.05478149846523044</v>
+        <v>0.0440357006040936</v>
       </c>
       <c r="C50">
-        <v>0.01503528021531283</v>
+        <v>-0.02747671803540418</v>
       </c>
       <c r="D50">
-        <v>0.005500948945912416</v>
+        <v>-0.001649745160746215</v>
       </c>
       <c r="E50">
-        <v>-0.0292360491225121</v>
+        <v>0.000113638085708437</v>
       </c>
       <c r="F50">
-        <v>0.05085395314924099</v>
+        <v>-0.001800016045879057</v>
       </c>
       <c r="G50">
-        <v>0.0001334690573837209</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.05345760035836884</v>
+      </c>
+      <c r="H50">
+        <v>-0.01976013014781293</v>
+      </c>
+      <c r="I50">
+        <v>0.02386055403721541</v>
+      </c>
+      <c r="J50">
+        <v>-0.02714377246939207</v>
+      </c>
+      <c r="K50">
+        <v>-0.0207951976059059</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03603786091654679</v>
+        <v>0.021307339860928</v>
       </c>
       <c r="C51">
-        <v>0.0132600686984326</v>
+        <v>0.001906582784047633</v>
       </c>
       <c r="D51">
-        <v>-0.01365057182229955</v>
+        <v>0.01083314505428829</v>
       </c>
       <c r="E51">
-        <v>0.008919821209926633</v>
+        <v>-0.007233640273920411</v>
       </c>
       <c r="F51">
-        <v>-0.002273099309172776</v>
+        <v>0.02470128081637565</v>
       </c>
       <c r="G51">
-        <v>0.003728613186282016</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.03170074031562087</v>
+      </c>
+      <c r="H51">
+        <v>0.001405741511013891</v>
+      </c>
+      <c r="I51">
+        <v>-0.01550837495790345</v>
+      </c>
+      <c r="J51">
+        <v>0.03428725476256458</v>
+      </c>
+      <c r="K51">
+        <v>-0.02568945299818024</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.06828552859054744</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.03596234748549547</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01658985400145919</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.02284071195917738</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.0001397972350784049</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>-0.05472152151418751</v>
+      </c>
+      <c r="H52">
+        <v>0.05686569843383447</v>
+      </c>
+      <c r="I52">
+        <v>0.1155458021766877</v>
+      </c>
+      <c r="J52">
+        <v>-0.01548504698913745</v>
+      </c>
+      <c r="K52">
+        <v>0.01309978865436827</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.159385220577321</v>
+        <v>0.1621574776979142</v>
       </c>
       <c r="C53">
-        <v>-0.001526620518531172</v>
+        <v>-0.03516976482756218</v>
       </c>
       <c r="D53">
-        <v>-0.0102260543144735</v>
+        <v>-0.008243222090871472</v>
       </c>
       <c r="E53">
-        <v>0.05016791578952546</v>
+        <v>0.002790476052255748</v>
       </c>
       <c r="F53">
-        <v>0.2409218469101181</v>
+        <v>0.02298570810154215</v>
       </c>
       <c r="G53">
-        <v>-0.06066710120187081</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.002255201770205058</v>
+      </c>
+      <c r="H53">
+        <v>0.1482070565860098</v>
+      </c>
+      <c r="I53">
+        <v>0.2557637189707951</v>
+      </c>
+      <c r="J53">
+        <v>-0.1000735110015696</v>
+      </c>
+      <c r="K53">
+        <v>-0.04860385180195117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.05431707444856849</v>
+        <v>0.0539750679271553</v>
       </c>
       <c r="C54">
-        <v>0.005592052991348863</v>
+        <v>-0.03766599632178529</v>
       </c>
       <c r="D54">
-        <v>-0.02861934786163022</v>
+        <v>0.003232716561417605</v>
       </c>
       <c r="E54">
-        <v>-0.04337329576154554</v>
+        <v>-0.02365989759272821</v>
       </c>
       <c r="F54">
-        <v>0.01286055584312908</v>
+        <v>0.01011093160795491</v>
       </c>
       <c r="G54">
-        <v>0.07819584207498682</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.08665623962390294</v>
+      </c>
+      <c r="H54">
+        <v>-0.1201731749782183</v>
+      </c>
+      <c r="I54">
+        <v>-9.965044475255375e-05</v>
+      </c>
+      <c r="J54">
+        <v>-0.1035440394675568</v>
+      </c>
+      <c r="K54">
+        <v>0.09343877961203062</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09570699571387647</v>
+        <v>0.08894497227920029</v>
       </c>
       <c r="C55">
-        <v>0.01045735203917816</v>
+        <v>-0.0305758360124872</v>
       </c>
       <c r="D55">
-        <v>-0.01971953501489761</v>
+        <v>0.04503612744888957</v>
       </c>
       <c r="E55">
-        <v>-0.002773829831400359</v>
+        <v>0.01647304510238965</v>
       </c>
       <c r="F55">
-        <v>0.1842952499932945</v>
+        <v>0.04612094346249353</v>
       </c>
       <c r="G55">
-        <v>-0.0110545389591757</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.007803680882380448</v>
+      </c>
+      <c r="H55">
+        <v>0.04564473203390752</v>
+      </c>
+      <c r="I55">
+        <v>0.1642357911479948</v>
+      </c>
+      <c r="J55">
+        <v>-0.04477359974540162</v>
+      </c>
+      <c r="K55">
+        <v>-0.01218609953090036</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1621930470287591</v>
+        <v>0.1591672994124488</v>
       </c>
       <c r="C56">
-        <v>-0.005924909461170444</v>
+        <v>-0.04550365746598885</v>
       </c>
       <c r="D56">
-        <v>-0.006879209281089873</v>
+        <v>0.0113872287237329</v>
       </c>
       <c r="E56">
-        <v>0.04961293907144734</v>
+        <v>0.01570724644383944</v>
       </c>
       <c r="F56">
-        <v>0.2369621028280497</v>
+        <v>0.05471393946335065</v>
       </c>
       <c r="G56">
-        <v>-0.06290111161805431</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.03580329568384327</v>
+      </c>
+      <c r="H56">
+        <v>0.1195505399271153</v>
+      </c>
+      <c r="I56">
+        <v>0.2090390109357937</v>
+      </c>
+      <c r="J56">
+        <v>-0.06458877095670355</v>
+      </c>
+      <c r="K56">
+        <v>-0.05286211066311135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.03634104310038674</v>
+        <v>0.04458448882482262</v>
       </c>
       <c r="C58">
-        <v>0.05312136634856306</v>
+        <v>-0.0401371121943156</v>
       </c>
       <c r="D58">
-        <v>0.02504522960629228</v>
+        <v>0.01738020327088491</v>
       </c>
       <c r="E58">
-        <v>-0.2903406480191982</v>
+        <v>-0.08102315779777002</v>
       </c>
       <c r="F58">
-        <v>-0.4553541950476838</v>
+        <v>-0.02759328864693476</v>
       </c>
       <c r="G58">
-        <v>0.1065755435308631</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1043500518184538</v>
+      </c>
+      <c r="H58">
+        <v>0.03404434411899242</v>
+      </c>
+      <c r="I58">
+        <v>-0.1973115701905616</v>
+      </c>
+      <c r="J58">
+        <v>0.06331233436739332</v>
+      </c>
+      <c r="K58">
+        <v>0.1970329917148104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1617263970597638</v>
+        <v>0.1922631196373564</v>
       </c>
       <c r="C59">
-        <v>-0.3880341485697465</v>
+        <v>0.3032334705844467</v>
       </c>
       <c r="D59">
-        <v>-0.08442063765487784</v>
+        <v>0.01391932922603207</v>
       </c>
       <c r="E59">
-        <v>0.07690150107684179</v>
+        <v>0.02803627461762318</v>
       </c>
       <c r="F59">
-        <v>0.04631200150572169</v>
+        <v>0.04168809567485399</v>
       </c>
       <c r="G59">
-        <v>0.03152246478917869</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.02326447314102225</v>
+      </c>
+      <c r="H59">
+        <v>-0.06046623261119596</v>
+      </c>
+      <c r="I59">
+        <v>0.07783555317455337</v>
+      </c>
+      <c r="J59">
+        <v>0.003936194830636419</v>
+      </c>
+      <c r="K59">
+        <v>0.005466101738152795</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2641972137123003</v>
+        <v>0.251457286145535</v>
       </c>
       <c r="C60">
-        <v>0.07024297208672134</v>
+        <v>-0.1067820150618632</v>
       </c>
       <c r="D60">
-        <v>-0.0740947424205784</v>
+        <v>-0.08995899731047788</v>
       </c>
       <c r="E60">
-        <v>0.08267794099648665</v>
+        <v>0.0212576366935067</v>
       </c>
       <c r="F60">
-        <v>-0.07339233285512525</v>
+        <v>0.06272314099686487</v>
       </c>
       <c r="G60">
-        <v>-0.1997846537629357</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1075993271858047</v>
+      </c>
+      <c r="H60">
+        <v>0.08202299814556201</v>
+      </c>
+      <c r="I60">
+        <v>-0.1095668061482182</v>
+      </c>
+      <c r="J60">
+        <v>-0.004709629918699133</v>
+      </c>
+      <c r="K60">
+        <v>-0.2299285667279627</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.09259606930982309</v>
+        <v>0.10396506476346</v>
       </c>
       <c r="C61">
-        <v>0.02085498466931219</v>
+        <v>-0.04556965400147225</v>
       </c>
       <c r="D61">
-        <v>-0.004923900676659316</v>
+        <v>0.03759994601390242</v>
       </c>
       <c r="E61">
-        <v>-0.02350947487343981</v>
+        <v>0.05344001507167095</v>
       </c>
       <c r="F61">
-        <v>0.01961997842775123</v>
+        <v>0.05921487483272762</v>
       </c>
       <c r="G61">
-        <v>0.06309348076684447</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.1356213915035559</v>
+      </c>
+      <c r="H61">
+        <v>-0.05740012041961068</v>
+      </c>
+      <c r="I61">
+        <v>0.04823953213146873</v>
+      </c>
+      <c r="J61">
+        <v>0.1016468607285324</v>
+      </c>
+      <c r="K61">
+        <v>0.008286200834588323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1466990751584843</v>
+        <v>0.1508949777657271</v>
       </c>
       <c r="C62">
-        <v>0.02558068707984543</v>
+        <v>-0.04781426178155829</v>
       </c>
       <c r="D62">
-        <v>0.03397594191725281</v>
+        <v>0.01354057480637931</v>
       </c>
       <c r="E62">
-        <v>0.1198835531166288</v>
+        <v>0.02720859877472824</v>
       </c>
       <c r="F62">
-        <v>0.2436757071772926</v>
+        <v>0.02660682616140299</v>
       </c>
       <c r="G62">
-        <v>-0.02464361688651665</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.002022977867991535</v>
+      </c>
+      <c r="H62">
+        <v>0.120043338974529</v>
+      </c>
+      <c r="I62">
+        <v>0.2119931399738935</v>
+      </c>
+      <c r="J62">
+        <v>-0.0942575428494301</v>
+      </c>
+      <c r="K62">
+        <v>-0.03358719173515744</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.04225800809624645</v>
+        <v>0.04255122349291687</v>
       </c>
       <c r="C63">
-        <v>0.01312849629408628</v>
+        <v>-0.01344615057194903</v>
       </c>
       <c r="D63">
-        <v>0.008146046814837308</v>
+        <v>0.02063831711574625</v>
       </c>
       <c r="E63">
-        <v>-0.01407350941208853</v>
+        <v>0.01145476708206707</v>
       </c>
       <c r="F63">
-        <v>0.01656795329357735</v>
+        <v>-0.01499961496032088</v>
       </c>
       <c r="G63">
-        <v>0.04699984752086517</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.0563215909026835</v>
+      </c>
+      <c r="H63">
+        <v>-0.04290278590717342</v>
+      </c>
+      <c r="I63">
+        <v>-0.01649621453415947</v>
+      </c>
+      <c r="J63">
+        <v>-0.0008926228419137429</v>
+      </c>
+      <c r="K63">
+        <v>-0.00704815691028252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.1038919485272543</v>
+        <v>0.09918953790754897</v>
       </c>
       <c r="C64">
-        <v>0.01368465357820216</v>
+        <v>-0.03770037319015904</v>
       </c>
       <c r="D64">
-        <v>-0.03927463634155012</v>
+        <v>-0.01287624648981104</v>
       </c>
       <c r="E64">
-        <v>-0.03363390568370116</v>
+        <v>-0.017825365851026</v>
       </c>
       <c r="F64">
-        <v>-0.03082336970677131</v>
+        <v>0.04861225567111824</v>
       </c>
       <c r="G64">
-        <v>0.05365303387481005</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.08251436438406362</v>
+      </c>
+      <c r="H64">
+        <v>-0.03814974183294007</v>
+      </c>
+      <c r="I64">
+        <v>-0.08088543973010044</v>
+      </c>
+      <c r="J64">
+        <v>0.02224717653271696</v>
+      </c>
+      <c r="K64">
+        <v>-0.05521523198902482</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1215150693034273</v>
+        <v>0.1178085575653325</v>
       </c>
       <c r="C65">
-        <v>0.02861524097847378</v>
+        <v>-0.02910790873735557</v>
       </c>
       <c r="D65">
-        <v>-0.02638402014099932</v>
+        <v>-0.001828069103832924</v>
       </c>
       <c r="E65">
-        <v>-0.05617441163702541</v>
+        <v>0.008194273371639544</v>
       </c>
       <c r="F65">
-        <v>-0.1830015942628534</v>
+        <v>-0.03739530058256443</v>
       </c>
       <c r="G65">
-        <v>-0.158288205445731</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.04698608223342127</v>
+      </c>
+      <c r="H65">
+        <v>-0.04307275735419874</v>
+      </c>
+      <c r="I65">
+        <v>-0.2688386254673685</v>
+      </c>
+      <c r="J65">
+        <v>-0.4965097045819832</v>
+      </c>
+      <c r="K65">
+        <v>-0.2834804612748629</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1583320812324037</v>
+        <v>0.1402218482061718</v>
       </c>
       <c r="C66">
-        <v>0.05621329092248398</v>
+        <v>-0.1042194555328473</v>
       </c>
       <c r="D66">
-        <v>0.02032842615122964</v>
+        <v>0.06214196508690311</v>
       </c>
       <c r="E66">
-        <v>-0.02022067703526891</v>
+        <v>0.1028384045385231</v>
       </c>
       <c r="F66">
-        <v>0.03231708646063988</v>
+        <v>0.05668548749427214</v>
       </c>
       <c r="G66">
-        <v>0.2978507220888888</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.1531327644111283</v>
+      </c>
+      <c r="H66">
+        <v>-0.01682498654555665</v>
+      </c>
+      <c r="I66">
+        <v>0.02225231596034312</v>
+      </c>
+      <c r="J66">
+        <v>0.2239941911132987</v>
+      </c>
+      <c r="K66">
+        <v>-0.09413374069444709</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.1012295342670561</v>
+        <v>0.06800492912848058</v>
       </c>
       <c r="C67">
-        <v>0.04154384956694143</v>
+        <v>-0.03738941199604332</v>
       </c>
       <c r="D67">
-        <v>-0.01814568670553816</v>
+        <v>0.06376168866122144</v>
       </c>
       <c r="E67">
-        <v>0.01609801352578967</v>
+        <v>-0.01817479600233449</v>
       </c>
       <c r="F67">
-        <v>-0.001195568403031865</v>
+        <v>0.04905636976102924</v>
       </c>
       <c r="G67">
-        <v>0.04543161034226191</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.04792264408220927</v>
+      </c>
+      <c r="H67">
+        <v>0.02791179130571378</v>
+      </c>
+      <c r="I67">
+        <v>0.02101874135258388</v>
+      </c>
+      <c r="J67">
+        <v>0.01824320597983063</v>
+      </c>
+      <c r="K67">
+        <v>-0.03722387747688111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.04460607418155162</v>
+        <v>0.1017955253729516</v>
       </c>
       <c r="C68">
-        <v>-0.2933542507133426</v>
+        <v>0.2791776720695376</v>
       </c>
       <c r="D68">
-        <v>-0.03772867667339088</v>
+        <v>0.005480285942344369</v>
       </c>
       <c r="E68">
-        <v>0.009005352946062672</v>
+        <v>0.01381582486048589</v>
       </c>
       <c r="F68">
-        <v>-0.01198170530767538</v>
+        <v>-0.01068268266722922</v>
       </c>
       <c r="G68">
-        <v>-0.02147002607863363</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02695109496361064</v>
+      </c>
+      <c r="H68">
+        <v>-0.03024739794165604</v>
+      </c>
+      <c r="I68">
+        <v>-0.0001573700863338801</v>
+      </c>
+      <c r="J68">
+        <v>-0.01668596340525705</v>
+      </c>
+      <c r="K68">
+        <v>-0.01364529862307819</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.04657499381618213</v>
+        <v>0.0370971907817653</v>
       </c>
       <c r="C69">
-        <v>0.01620670612340178</v>
+        <v>-3.713355701648406e-05</v>
       </c>
       <c r="D69">
-        <v>-0.008712795855127303</v>
+        <v>0.02608083320433234</v>
       </c>
       <c r="E69">
-        <v>0.002235952995769741</v>
+        <v>-0.004923746162367242</v>
       </c>
       <c r="F69">
-        <v>0.01722535570091749</v>
+        <v>0.02532453680249106</v>
       </c>
       <c r="G69">
-        <v>0.02663164742571903</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01066223320391476</v>
+      </c>
+      <c r="H69">
+        <v>0.005012608541300635</v>
+      </c>
+      <c r="I69">
+        <v>0.005626919603723996</v>
+      </c>
+      <c r="J69">
+        <v>-0.02955569619523717</v>
+      </c>
+      <c r="K69">
+        <v>-0.01253713775448444</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.07537833679549973</v>
+        <v>0.04637874360162651</v>
       </c>
       <c r="C70">
-        <v>0.007438081426845807</v>
+        <v>-0.009990696912732003</v>
       </c>
       <c r="D70">
-        <v>-0.03910198438830943</v>
+        <v>0.01645247042524553</v>
       </c>
       <c r="E70">
-        <v>0.03767815556600339</v>
+        <v>0.01980283753183432</v>
       </c>
       <c r="F70">
-        <v>-0.08827082265376883</v>
+        <v>0.05059447597512717</v>
       </c>
       <c r="G70">
-        <v>0.0007144372238837164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>-0.02845687190982602</v>
+      </c>
+      <c r="H70">
+        <v>-0.0161366069077772</v>
+      </c>
+      <c r="I70">
+        <v>-0.09044093860262462</v>
+      </c>
+      <c r="J70">
+        <v>-0.1138875057478764</v>
+      </c>
+      <c r="K70">
+        <v>0.1606844628370207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.05242296780383401</v>
+        <v>0.1165007429266341</v>
       </c>
       <c r="C71">
-        <v>-0.2961350171108473</v>
+        <v>0.2923518714855776</v>
       </c>
       <c r="D71">
-        <v>-0.05555702821338839</v>
+        <v>-0.007454107839409785</v>
       </c>
       <c r="E71">
-        <v>0.0129573251680052</v>
+        <v>0.0001099461081707963</v>
       </c>
       <c r="F71">
-        <v>-0.01738084009374997</v>
+        <v>0.0109981350448685</v>
       </c>
       <c r="G71">
-        <v>0.01213637134702926</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.04452033463661648</v>
+      </c>
+      <c r="H71">
+        <v>-0.02006796139188067</v>
+      </c>
+      <c r="I71">
+        <v>0.001687330303432986</v>
+      </c>
+      <c r="J71">
+        <v>0.01214347945018359</v>
+      </c>
+      <c r="K71">
+        <v>-0.03897242942282086</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1497657667541111</v>
+        <v>0.1463169483335267</v>
       </c>
       <c r="C72">
-        <v>-0.04369083766763131</v>
+        <v>-0.0141289625478117</v>
       </c>
       <c r="D72">
-        <v>0.2349630267045438</v>
+        <v>0.04260449990184382</v>
       </c>
       <c r="E72">
-        <v>0.02482230729980431</v>
+        <v>0.02987075544570603</v>
       </c>
       <c r="F72">
-        <v>0.03294074198156598</v>
+        <v>-0.08983804564802943</v>
       </c>
       <c r="G72">
-        <v>0.06729599705331563</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.007140379504297873</v>
+      </c>
+      <c r="H72">
+        <v>0.01700101573529538</v>
+      </c>
+      <c r="I72">
+        <v>0.03287548003473351</v>
+      </c>
+      <c r="J72">
+        <v>-0.1021494509688122</v>
+      </c>
+      <c r="K72">
+        <v>-0.1301079277364076</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2874165660524319</v>
+        <v>0.2366587678828198</v>
       </c>
       <c r="C73">
-        <v>0.1578254738123415</v>
+        <v>-0.1175610392280862</v>
       </c>
       <c r="D73">
-        <v>-0.04320123534557093</v>
+        <v>-0.02164634739330289</v>
       </c>
       <c r="E73">
-        <v>0.1609137067439352</v>
+        <v>0.0594650054899961</v>
       </c>
       <c r="F73">
-        <v>-0.2864732284428429</v>
+        <v>0.1652142240880046</v>
       </c>
       <c r="G73">
-        <v>-0.2755289406697637</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.3345799494636109</v>
+      </c>
+      <c r="H73">
+        <v>0.2533092020461472</v>
+      </c>
+      <c r="I73">
+        <v>-0.3150694982517637</v>
+      </c>
+      <c r="J73">
+        <v>0.2835704454071342</v>
+      </c>
+      <c r="K73">
+        <v>-0.1320293088664046</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.09956588874221856</v>
+        <v>0.1143267857536667</v>
       </c>
       <c r="C74">
-        <v>0.0389101721998462</v>
+        <v>-0.06062879269775676</v>
       </c>
       <c r="D74">
-        <v>0.003275890665416183</v>
+        <v>0.03207367093946842</v>
       </c>
       <c r="E74">
-        <v>0.01133164190520714</v>
+        <v>0.006890409885359504</v>
       </c>
       <c r="F74">
-        <v>0.1019573337309102</v>
+        <v>0.02574092173194562</v>
       </c>
       <c r="G74">
-        <v>-0.03284108413519847</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.04012177158671313</v>
+      </c>
+      <c r="H74">
+        <v>0.1256376668279376</v>
+      </c>
+      <c r="I74">
+        <v>0.1074830270974796</v>
+      </c>
+      <c r="J74">
+        <v>-0.04060853301085885</v>
+      </c>
+      <c r="K74">
+        <v>-0.01782596096157792</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.09485600163535579</v>
+        <v>0.1072684490235849</v>
       </c>
       <c r="C75">
-        <v>0.01409458369461515</v>
+        <v>-0.04515434295093476</v>
       </c>
       <c r="D75">
-        <v>0.02096661614748809</v>
+        <v>0.005610566092833291</v>
       </c>
       <c r="E75">
-        <v>0.03433556355477948</v>
+        <v>0.009120722647897669</v>
       </c>
       <c r="F75">
-        <v>0.1208888995981605</v>
+        <v>0.002087719850876551</v>
       </c>
       <c r="G75">
-        <v>-0.0677694245923056</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.006084836253990265</v>
+      </c>
+      <c r="H75">
+        <v>0.0697801704423853</v>
+      </c>
+      <c r="I75">
+        <v>0.1379856554959984</v>
+      </c>
+      <c r="J75">
+        <v>-0.04614757558553209</v>
+      </c>
+      <c r="K75">
+        <v>0.00784224392245501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1385722917223137</v>
+        <v>0.06008079162716157</v>
       </c>
       <c r="C76">
-        <v>0.02871864084498341</v>
+        <v>-0.02844613720711267</v>
       </c>
       <c r="D76">
-        <v>-0.01652456776981222</v>
+        <v>0.02854051410564266</v>
       </c>
       <c r="E76">
-        <v>-0.02098797489553849</v>
+        <v>-0.01220105762896548</v>
       </c>
       <c r="F76">
-        <v>0.2267659229966899</v>
+        <v>0.04392941260842022</v>
       </c>
       <c r="G76">
-        <v>-0.1047487312340499</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04753422579363843</v>
+      </c>
+      <c r="H76">
+        <v>0.06664293257735472</v>
+      </c>
+      <c r="I76">
+        <v>0.1350652700695022</v>
+      </c>
+      <c r="J76">
+        <v>-0.03850614702898301</v>
+      </c>
+      <c r="K76">
+        <v>-0.006307230752826293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08865308418454057</v>
+        <v>0.07321165326499675</v>
       </c>
       <c r="C77">
-        <v>-0.007758780800230677</v>
+        <v>-0.0313992648499196</v>
       </c>
       <c r="D77">
-        <v>-0.04181884957787639</v>
+        <v>-0.02169741628233454</v>
       </c>
       <c r="E77">
-        <v>-0.04858658568162092</v>
+        <v>-0.0174128676848697</v>
       </c>
       <c r="F77">
-        <v>-0.1651949651066408</v>
+        <v>0.03838871881768345</v>
       </c>
       <c r="G77">
-        <v>0.1681997936302083</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1097379614141832</v>
+      </c>
+      <c r="H77">
+        <v>-0.2117272180670138</v>
+      </c>
+      <c r="I77">
+        <v>-0.1369249356128861</v>
+      </c>
+      <c r="J77">
+        <v>-0.08732572663417176</v>
+      </c>
+      <c r="K77">
+        <v>-0.1523920820250204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.2113238920223179</v>
+        <v>0.1453568935956369</v>
       </c>
       <c r="C78">
-        <v>0.07342499283355448</v>
+        <v>-0.126407048313592</v>
       </c>
       <c r="D78">
-        <v>-0.0736374814486198</v>
+        <v>0.1015382868103402</v>
       </c>
       <c r="E78">
-        <v>-0.1776719997255814</v>
+        <v>-0.2183853773772364</v>
       </c>
       <c r="F78">
-        <v>0.003285887768786575</v>
+        <v>-0.01085583766839621</v>
       </c>
       <c r="G78">
-        <v>0.1338821970518048</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.5185469654287046</v>
+      </c>
+      <c r="H78">
+        <v>-0.6694629527198102</v>
+      </c>
+      <c r="I78">
+        <v>0.3022481991397716</v>
+      </c>
+      <c r="J78">
+        <v>0.04723362645347448</v>
+      </c>
+      <c r="K78">
+        <v>-0.007319686354993537</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1365750298698709</v>
+        <v>0.1362761015803161</v>
       </c>
       <c r="C79">
-        <v>0.00915821584535613</v>
+        <v>-0.04645300219245235</v>
       </c>
       <c r="D79">
-        <v>0.000503877671186105</v>
+        <v>-0.009695493113202702</v>
       </c>
       <c r="E79">
-        <v>0.01738988143970058</v>
+        <v>0.01125751810829775</v>
       </c>
       <c r="F79">
-        <v>0.1657595094410858</v>
+        <v>0.009000722736647189</v>
       </c>
       <c r="G79">
-        <v>0.002639151412872921</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.02897242509451425</v>
+      </c>
+      <c r="H79">
+        <v>0.08162272202197431</v>
+      </c>
+      <c r="I79">
+        <v>0.14950221670386</v>
+      </c>
+      <c r="J79">
+        <v>-0.07718328709663852</v>
+      </c>
+      <c r="K79">
+        <v>-0.04722701290094575</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.03465792193269759</v>
+        <v>0.06150961122347757</v>
       </c>
       <c r="C80">
-        <v>0.01013185833101658</v>
+        <v>-0.0411625290188489</v>
       </c>
       <c r="D80">
-        <v>-0.01662869017775433</v>
+        <v>0.03325574409057028</v>
       </c>
       <c r="E80">
-        <v>0.02892153994280673</v>
+        <v>0.04083597157094597</v>
       </c>
       <c r="F80">
-        <v>-0.02143195651821436</v>
+        <v>0.06146518956067724</v>
       </c>
       <c r="G80">
-        <v>0.07394583225815754</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.03314324881992162</v>
+      </c>
+      <c r="H80">
+        <v>-0.04727972435204186</v>
+      </c>
+      <c r="I80">
+        <v>0.0005393944629514288</v>
+      </c>
+      <c r="J80">
+        <v>0.006078794303650095</v>
+      </c>
+      <c r="K80">
+        <v>0.1047000822531038</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1095894389549664</v>
+        <v>0.1314465891605761</v>
       </c>
       <c r="C81">
-        <v>0.01160700706271264</v>
+        <v>-0.053186825437386</v>
       </c>
       <c r="D81">
-        <v>-0.009910219886383426</v>
+        <v>0.003416324558606962</v>
       </c>
       <c r="E81">
-        <v>0.01617290858935875</v>
+        <v>0.004948760898316437</v>
       </c>
       <c r="F81">
-        <v>0.1432130466442952</v>
+        <v>0.02472143588473133</v>
       </c>
       <c r="G81">
-        <v>-0.04120393494718898</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.05053364453001218</v>
+      </c>
+      <c r="H81">
+        <v>0.06059232726624417</v>
+      </c>
+      <c r="I81">
+        <v>0.134598416804015</v>
+      </c>
+      <c r="J81">
+        <v>-0.03191717092524791</v>
+      </c>
+      <c r="K81">
+        <v>0.01072216131242753</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.111599124716997</v>
+        <v>0.1436415174354284</v>
       </c>
       <c r="C82">
-        <v>0.02328755209498976</v>
+        <v>-0.04423780684083847</v>
       </c>
       <c r="D82">
-        <v>-0.05340190664810802</v>
+        <v>-0.007747096038628635</v>
       </c>
       <c r="E82">
-        <v>0.05940472792822993</v>
+        <v>0.03591066042547852</v>
       </c>
       <c r="F82">
-        <v>0.2278864248446065</v>
+        <v>0.05156805016384255</v>
       </c>
       <c r="G82">
-        <v>-0.005070992168652887</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.04782997725779094</v>
+      </c>
+      <c r="H82">
+        <v>0.1686388876029368</v>
+      </c>
+      <c r="I82">
+        <v>0.2613881902854437</v>
+      </c>
+      <c r="J82">
+        <v>-0.01333563001606277</v>
+      </c>
+      <c r="K82">
+        <v>0.06008819787729798</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.1022604271661827</v>
+        <v>0.08996111847004348</v>
       </c>
       <c r="C83">
-        <v>0.05777212652572435</v>
+        <v>-0.1054106011007143</v>
       </c>
       <c r="D83">
-        <v>-0.0565761291548467</v>
+        <v>0.006038389252980549</v>
       </c>
       <c r="E83">
-        <v>0.02733652833353571</v>
+        <v>-0.01191739169634271</v>
       </c>
       <c r="F83">
-        <v>-0.07979225598444234</v>
+        <v>0.02533612900280859</v>
       </c>
       <c r="G83">
-        <v>0.06630076852542191</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.03676937689073261</v>
+      </c>
+      <c r="H83">
+        <v>-0.04148639862310124</v>
+      </c>
+      <c r="I83">
+        <v>-0.03716708730054005</v>
+      </c>
+      <c r="J83">
+        <v>-0.1148523251409534</v>
+      </c>
+      <c r="K83">
+        <v>0.0887149950886556</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.05429417427102346</v>
+        <v>0.05491520243542806</v>
       </c>
       <c r="C84">
-        <v>0.02375827441934967</v>
+        <v>0.02811411348780173</v>
       </c>
       <c r="D84">
-        <v>0.04163711282608615</v>
+        <v>-0.03611476022712884</v>
       </c>
       <c r="E84">
-        <v>-0.03679931709439005</v>
+        <v>0.02119082281500301</v>
       </c>
       <c r="F84">
-        <v>0.0299812596263753</v>
+        <v>-0.01535941157043417</v>
       </c>
       <c r="G84">
-        <v>-0.02864256452570353</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.07619918891835788</v>
+      </c>
+      <c r="H84">
+        <v>-0.08569084709308301</v>
+      </c>
+      <c r="I84">
+        <v>-0.01750806688294263</v>
+      </c>
+      <c r="J84">
+        <v>0.3426414726961773</v>
+      </c>
+      <c r="K84">
+        <v>0.1492750039017225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1013916953874269</v>
+        <v>0.1188905179247959</v>
       </c>
       <c r="C85">
-        <v>0.01935121152004239</v>
+        <v>-0.04168016976089049</v>
       </c>
       <c r="D85">
-        <v>-0.02585558788665678</v>
+        <v>-0.009419115945195875</v>
       </c>
       <c r="E85">
-        <v>0.02152670673369348</v>
+        <v>0.009064235568749334</v>
       </c>
       <c r="F85">
-        <v>0.1988011931424693</v>
+        <v>0.04562847364975564</v>
       </c>
       <c r="G85">
-        <v>-0.0116116616701839</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.03048338721508458</v>
+      </c>
+      <c r="H85">
+        <v>0.0755003551759767</v>
+      </c>
+      <c r="I85">
+        <v>0.1723457157144906</v>
+      </c>
+      <c r="J85">
+        <v>-0.06297759596485057</v>
+      </c>
+      <c r="K85">
+        <v>-0.04585447069537395</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.0674642918528145</v>
+        <v>0.1405307275330546</v>
       </c>
       <c r="C86">
-        <v>0.02440173769062093</v>
+        <v>-0.09714038863791473</v>
       </c>
       <c r="D86">
-        <v>-0.05320510031192766</v>
+        <v>-0.8491454545854461</v>
       </c>
       <c r="E86">
-        <v>-0.04977983191226947</v>
+        <v>-0.01167027667652077</v>
       </c>
       <c r="F86">
-        <v>-0.02766942521304795</v>
+        <v>-0.4114541571022525</v>
       </c>
       <c r="G86">
-        <v>0.1381518535782174</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.08812941975549572</v>
+      </c>
+      <c r="H86">
+        <v>-0.08452918472493752</v>
+      </c>
+      <c r="I86">
+        <v>0.06286571054669728</v>
+      </c>
+      <c r="J86">
+        <v>0.057828914415163</v>
+      </c>
+      <c r="K86">
+        <v>0.03571025703683627</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.1033313348483344</v>
+        <v>0.1090779409055566</v>
       </c>
       <c r="C87">
-        <v>0.05747520579515335</v>
+        <v>-0.09286410792873818</v>
       </c>
       <c r="D87">
-        <v>-0.02459393841963842</v>
+        <v>0.006203317716603867</v>
       </c>
       <c r="E87">
-        <v>-0.05417817831705807</v>
+        <v>-0.02664851706533036</v>
       </c>
       <c r="F87">
-        <v>-0.0186338492384792</v>
+        <v>0.03163277016388454</v>
       </c>
       <c r="G87">
-        <v>0.1217308896313186</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.09060170581816754</v>
+      </c>
+      <c r="H87">
+        <v>-0.1078212360485022</v>
+      </c>
+      <c r="I87">
+        <v>-0.1354852040377567</v>
+      </c>
+      <c r="J87">
+        <v>-0.1067253351543281</v>
+      </c>
+      <c r="K87">
+        <v>0.04362688895721215</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.06889098571895255</v>
+        <v>0.0578327739409531</v>
       </c>
       <c r="C88">
-        <v>0.03596782937033025</v>
+        <v>-0.04739089490947094</v>
       </c>
       <c r="D88">
-        <v>-0.02416317252512984</v>
+        <v>0.01718796449198972</v>
       </c>
       <c r="E88">
-        <v>-0.01069165893689996</v>
+        <v>0.04263690733851504</v>
       </c>
       <c r="F88">
-        <v>-0.0001065583749499684</v>
+        <v>0.0430846469018226</v>
       </c>
       <c r="G88">
-        <v>0.06230103305550387</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.03028079733231911</v>
+      </c>
+      <c r="H88">
+        <v>-0.002922073991983536</v>
+      </c>
+      <c r="I88">
+        <v>-0.01063625780276401</v>
+      </c>
+      <c r="J88">
+        <v>0.01974174904441112</v>
+      </c>
+      <c r="K88">
+        <v>-0.01173791804728023</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.09939159847812049</v>
+        <v>0.1699090405858782</v>
       </c>
       <c r="C89">
-        <v>-0.3665397182630964</v>
+        <v>0.3723338561471031</v>
       </c>
       <c r="D89">
-        <v>-0.1090108197755994</v>
+        <v>-0.01882830492960828</v>
       </c>
       <c r="E89">
-        <v>-0.01468151385423782</v>
+        <v>-0.0624378651077169</v>
       </c>
       <c r="F89">
-        <v>-0.06402146639327927</v>
+        <v>0.02919996004191659</v>
       </c>
       <c r="G89">
-        <v>0.007796254590628257</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.003730253600736448</v>
+      </c>
+      <c r="H89">
+        <v>-0.04242079584585524</v>
+      </c>
+      <c r="I89">
+        <v>-0.02951310292326396</v>
+      </c>
+      <c r="J89">
+        <v>0.01384737516683923</v>
+      </c>
+      <c r="K89">
+        <v>0.07893590423245228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.07930820851039583</v>
+        <v>0.1334732136725451</v>
       </c>
       <c r="C90">
-        <v>-0.2965179319992068</v>
+        <v>0.2778505486894629</v>
       </c>
       <c r="D90">
-        <v>-0.05059838233957808</v>
+        <v>-0.01027177099725121</v>
       </c>
       <c r="E90">
-        <v>-0.04256872523651691</v>
+        <v>0.0009740345647030915</v>
       </c>
       <c r="F90">
-        <v>-0.05786650903761587</v>
+        <v>0.01519673462030372</v>
       </c>
       <c r="G90">
-        <v>0.04584980395958128</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.03514465192852582</v>
+      </c>
+      <c r="H90">
+        <v>-0.03094318507656886</v>
+      </c>
+      <c r="I90">
+        <v>-0.04792813778693724</v>
+      </c>
+      <c r="J90">
+        <v>0.0478074930146659</v>
+      </c>
+      <c r="K90">
+        <v>-0.03738864932009679</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.08602786177246019</v>
+        <v>0.08261742660289129</v>
       </c>
       <c r="C91">
-        <v>0.02140379988242871</v>
+        <v>-0.03784111472957516</v>
       </c>
       <c r="D91">
-        <v>-0.002927852630571441</v>
+        <v>-0.01930422593385247</v>
       </c>
       <c r="E91">
-        <v>0.01636175648133835</v>
+        <v>0.001084425198635524</v>
       </c>
       <c r="F91">
-        <v>0.08893926095562651</v>
+        <v>0.01569315291033378</v>
       </c>
       <c r="G91">
-        <v>-0.07126455751479994</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.004792588582870563</v>
+      </c>
+      <c r="H91">
+        <v>0.06748649523649956</v>
+      </c>
+      <c r="I91">
+        <v>0.1112886309554317</v>
+      </c>
+      <c r="J91">
+        <v>-0.04427481808407129</v>
+      </c>
+      <c r="K91">
+        <v>0.005857653810542427</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.07437807839789551</v>
+        <v>0.1443864645861692</v>
       </c>
       <c r="C92">
-        <v>-0.3420718507034551</v>
+        <v>0.3309736553538736</v>
       </c>
       <c r="D92">
-        <v>-0.07154434451947049</v>
+        <v>-0.0002023850135969089</v>
       </c>
       <c r="E92">
-        <v>-0.01669172621451859</v>
+        <v>-0.0428308057607891</v>
       </c>
       <c r="F92">
-        <v>-0.04200202104375855</v>
+        <v>0.01388180001807387</v>
       </c>
       <c r="G92">
-        <v>-0.03149314289152504</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.02213998076768768</v>
+      </c>
+      <c r="H92">
+        <v>-0.06098395737884279</v>
+      </c>
+      <c r="I92">
+        <v>0.03398204081005744</v>
+      </c>
+      <c r="J92">
+        <v>0.01975631297980758</v>
+      </c>
+      <c r="K92">
+        <v>0.007299434303561946</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.09103623173153327</v>
+        <v>0.1386102200976052</v>
       </c>
       <c r="C93">
-        <v>-0.295016328218897</v>
+        <v>0.3099530439853348</v>
       </c>
       <c r="D93">
-        <v>-0.05413086819042906</v>
+        <v>-0.03665184737028467</v>
       </c>
       <c r="E93">
-        <v>-0.005491758686507779</v>
+        <v>0.0232103034625773</v>
       </c>
       <c r="F93">
-        <v>-0.02140721748936559</v>
+        <v>0.01562429908729025</v>
       </c>
       <c r="G93">
-        <v>-0.004766458807208257</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.02598176870355021</v>
+      </c>
+      <c r="H93">
+        <v>-0.004200044313765658</v>
+      </c>
+      <c r="I93">
+        <v>-0.02584614187826194</v>
+      </c>
+      <c r="J93">
+        <v>0.006542006417905821</v>
+      </c>
+      <c r="K93">
+        <v>-0.0006657120284136954</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.09538119667348667</v>
+        <v>0.1223008799190931</v>
       </c>
       <c r="C94">
-        <v>0.04059679504151015</v>
+        <v>-0.04803917680012553</v>
       </c>
       <c r="D94">
-        <v>0.007345816150364864</v>
+        <v>0.02168338084659395</v>
       </c>
       <c r="E94">
-        <v>0.001215958160661605</v>
+        <v>-0.01345127111355409</v>
       </c>
       <c r="F94">
-        <v>0.1362190882422533</v>
+        <v>0.02561566764950077</v>
       </c>
       <c r="G94">
-        <v>-0.06576552036408224</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-9.527593407788147e-06</v>
+      </c>
+      <c r="H94">
+        <v>0.1083534496162861</v>
+      </c>
+      <c r="I94">
+        <v>0.1278043416894163</v>
+      </c>
+      <c r="J94">
+        <v>-0.006687508231920169</v>
+      </c>
+      <c r="K94">
+        <v>-0.01603174951659284</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1363635807931576</v>
+        <v>0.1199259382106018</v>
       </c>
       <c r="C95">
-        <v>0.068020375416794</v>
+        <v>-0.06989256792650513</v>
       </c>
       <c r="D95">
-        <v>-0.06841841770394178</v>
+        <v>0.01195626955045056</v>
       </c>
       <c r="E95">
-        <v>-0.01827054593249431</v>
+        <v>-0.0461937134632014</v>
       </c>
       <c r="F95">
-        <v>-0.06309540554550699</v>
+        <v>0.06271466281906631</v>
       </c>
       <c r="G95">
-        <v>0.1248141197836006</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.02884938734632231</v>
+      </c>
+      <c r="H95">
+        <v>-0.1162687664957227</v>
+      </c>
+      <c r="I95">
+        <v>-0.2144586919986447</v>
+      </c>
+      <c r="J95">
+        <v>0.0555636185895545</v>
+      </c>
+      <c r="K95">
+        <v>0.1114409699806116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.006512144591442154</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.001869373094232438</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.004908930812451194</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.003266516134901777</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-4.960873865999127e-05</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.008406607921277372</v>
+      </c>
+      <c r="H96">
+        <v>-0.02088774487080011</v>
+      </c>
+      <c r="I96">
+        <v>-0.008280525474035285</v>
+      </c>
+      <c r="J96">
+        <v>-0.01137264898556514</v>
+      </c>
+      <c r="K96">
+        <v>-0.0191826149563106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.2078442701111789</v>
+        <v>0.1892163615605615</v>
       </c>
       <c r="C97">
-        <v>-0.1426861474729267</v>
+        <v>-0.02447788059347709</v>
       </c>
       <c r="D97">
-        <v>0.9002014256771419</v>
+        <v>0.4313520801409348</v>
       </c>
       <c r="E97">
-        <v>-0.03828465347594166</v>
+        <v>0.1683624104433569</v>
       </c>
       <c r="F97">
-        <v>-0.06190203002183702</v>
+        <v>-0.8305631773743365</v>
       </c>
       <c r="G97">
-        <v>0.03194944950922629</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.01543331505235406</v>
+      </c>
+      <c r="H97">
+        <v>0.05488825855899518</v>
+      </c>
+      <c r="I97">
+        <v>-0.05349545335673177</v>
+      </c>
+      <c r="J97">
+        <v>0.05999860327758733</v>
+      </c>
+      <c r="K97">
+        <v>0.0233895602705872</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.3082941928819104</v>
+        <v>0.26645100877975</v>
       </c>
       <c r="C98">
-        <v>0.08731298518565157</v>
+        <v>-0.09265730115707579</v>
       </c>
       <c r="D98">
-        <v>-0.05842046085208385</v>
+        <v>-0.03777837882439672</v>
       </c>
       <c r="E98">
-        <v>0.251526470333283</v>
+        <v>-0.01882119576206639</v>
       </c>
       <c r="F98">
-        <v>-0.2182829056007817</v>
+        <v>0.03712092053131993</v>
       </c>
       <c r="G98">
-        <v>-0.2670554867413201</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.3078766093616134</v>
+      </c>
+      <c r="H98">
+        <v>0.177391645742719</v>
+      </c>
+      <c r="I98">
+        <v>-0.1605880379691729</v>
+      </c>
+      <c r="J98">
+        <v>-0.1627603939458784</v>
+      </c>
+      <c r="K98">
+        <v>0.6323804059588712</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.08564848910007269</v>
+        <v>0.05852343159183687</v>
       </c>
       <c r="C99">
-        <v>0.0334640017692827</v>
+        <v>-0.02220740047866124</v>
       </c>
       <c r="D99">
-        <v>-0.007685090162461988</v>
+        <v>0.03538263864325848</v>
       </c>
       <c r="E99">
-        <v>0.01170077937726206</v>
+        <v>-0.01924624913580794</v>
       </c>
       <c r="F99">
-        <v>0.01772312700212988</v>
+        <v>0.03697476695708575</v>
       </c>
       <c r="G99">
-        <v>0.009508210222644723</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.00603177462199059</v>
+      </c>
+      <c r="H99">
+        <v>0.008863183365695958</v>
+      </c>
+      <c r="I99">
+        <v>0.01437819854437504</v>
+      </c>
+      <c r="J99">
+        <v>0.03049541098620995</v>
+      </c>
+      <c r="K99">
+        <v>-0.0491960738694249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.01648181333373253</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.01708776759938686</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.09904518478225177</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.04511259464367393</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.01512422468998015</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>-0.04341242461356524</v>
+      </c>
+      <c r="H100">
+        <v>0.01672700598053005</v>
+      </c>
+      <c r="I100">
+        <v>0.04357669898533731</v>
+      </c>
+      <c r="J100">
+        <v>-0.01583465078822227</v>
+      </c>
+      <c r="K100">
+        <v>0.2659729638269597</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05732881074740915</v>
+        <v>0.04120534678369563</v>
       </c>
       <c r="C101">
-        <v>0.007939357844226053</v>
+        <v>-0.0200525261942555</v>
       </c>
       <c r="D101">
-        <v>-0.02960478414453593</v>
+        <v>0.01195255207671386</v>
       </c>
       <c r="E101">
-        <v>-0.04116806487130705</v>
+        <v>0.004368952760047002</v>
       </c>
       <c r="F101">
-        <v>0.03414007900759274</v>
+        <v>0.03716903298144483</v>
       </c>
       <c r="G101">
-        <v>0.04881089503109696</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.09867853716608338</v>
+      </c>
+      <c r="H101">
+        <v>-0.01373031503077565</v>
+      </c>
+      <c r="I101">
+        <v>-0.0006708853527555103</v>
+      </c>
+      <c r="J101">
+        <v>-0.04013479912039639</v>
+      </c>
+      <c r="K101">
+        <v>0.05013478952434497</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
